--- a/POMFramework_Sarathi/DataFiles/_01_LL_Applicant_Flows_Module.xlsx
+++ b/POMFramework_Sarathi/DataFiles/_01_LL_Applicant_Flows_Module.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="1275">
   <si>
     <t>Iteration</t>
   </si>
@@ -3845,7 +3845,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4352,52 +4351,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P15" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="Q15" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="104.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="36.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="39.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="41.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="5" width="41.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="5" width="26.85546875" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" style="5" width="25.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="22.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="5" width="25.85546875" collapsed="true"/>
-    <col min="15" max="17" bestFit="true" customWidth="true" style="5" width="43.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="5" width="15.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="5" width="15.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="5" width="13.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="5" width="27.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="5" width="19.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="5" width="36.0" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="5" width="19.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="41.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="13.28515625" collapsed="true"/>
-    <col min="29" max="30" bestFit="true" customWidth="true" style="5" width="13.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="5" width="43.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="5" width="15.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="5" width="13.85546875" collapsed="true"/>
-    <col min="34" max="35" bestFit="true" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="5" width="26.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="5" width="41.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="5" width="13.85546875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="5" width="6.42578125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="5" width="9.42578125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="5" width="10.0" collapsed="true"/>
-    <col min="46" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="104" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="25.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="43.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="36" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="19.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="41" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="30" width="13.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="43.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="36.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="26.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="41" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="6.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="11.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="9.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="10" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -6586,9 +6585,7 @@
       <c r="P18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="Q18" s="17"/>
       <c r="R18" s="17" t="s">
         <v>361</v>
       </c>

--- a/POMFramework_Sarathi/DataFiles/_01_LL_Applicant_Flows_Module.xlsx
+++ b/POMFramework_Sarathi/DataFiles/_01_LL_Applicant_Flows_Module.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="1275">
   <si>
     <t>Iteration</t>
   </si>
@@ -4352,7 +4352,7 @@
   <dimension ref="A1:AS283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q15" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="Q20" sqref="Q20:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6778,12 +6778,6 @@
       <c r="P20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="S20" s="8"/>
       <c r="T20" s="7"/>
       <c r="U20" s="9" t="s">
